--- a/DOC/結合テスト/経費管理結合＿エビデンス.xlsx
+++ b/DOC/結合テスト/経費管理結合＿エビデンス.xlsx
@@ -10,21 +10,21 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FBDA06-B88A-46EA-B5A4-5BBEF0D34DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="結合テストNo.1" sheetId="3" r:id="rId1"/>
-    <sheet name="経費管理初期表示 (2)" sheetId="5" r:id="rId2"/>
-    <sheet name="画面表示" sheetId="2" r:id="rId3"/>
-    <sheet name="No.5-No.12" sheetId="1" r:id="rId4"/>
-    <sheet name="新規追加テスト" sheetId="4" r:id="rId5"/>
+    <sheet name="結合テスト＿No.1" sheetId="3" r:id="rId1"/>
+    <sheet name="結合テスト＿No.2" sheetId="5" r:id="rId2"/>
+    <sheet name="結合テスト＿No.3,4" sheetId="2" r:id="rId3"/>
+    <sheet name="結合テスト＿No.5～No.12" sheetId="1" r:id="rId4"/>
+    <sheet name="結合テスト＿No.13,14" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t xml:space="preserve">NO６:金額が空のままにして、「登録」ボタンをクリックする。
 </t>
@@ -124,14 +124,9 @@
   </si>
   <si>
     <t>1)DBデータ：</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>2)画面：</t>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -316,20 +311,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7219950" cy="1952625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -343,8 +332,42 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1095375" y="4086225"/>
+          <a:off x="676275" y="5524500"/>
           <a:ext cx="7219950" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="13430250" cy="4257675"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="733425"/>
+          <a:ext cx="13430250" cy="4257675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -361,20 +384,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6715125" cy="352425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B1D831D-B650-4258-8168-75A949F03486}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -388,7 +405,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="561975" y="6353175"/>
+          <a:off x="619125" y="4229100"/>
           <a:ext cx="6715125" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -408,13 +425,7 @@
     <xdr:ext cx="7219950" cy="1952625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4148BAB-9997-4612-BEA6-BC5275DE07B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -448,13 +459,7 @@
     <xdr:ext cx="1028700" cy="1009650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49FFDAD8-9346-4449-92C4-93EC433EE731}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="図 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -468,7 +473,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9420225" y="1295400"/>
+          <a:off x="9172575" y="1295400"/>
           <a:ext cx="1028700" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -493,13 +498,7 @@
     <xdr:ext cx="6677025" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -513,7 +512,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9753600" y="1266825"/>
+          <a:off x="10610850" y="1552575"/>
           <a:ext cx="6677025" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -533,13 +532,7 @@
     <xdr:ext cx="6296025" cy="361950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="図 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -553,7 +546,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9696450" y="5057775"/>
+          <a:off x="10553700" y="6296025"/>
           <a:ext cx="6296025" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -573,13 +566,7 @@
     <xdr:ext cx="7581900" cy="1933575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="図 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -593,7 +580,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657225" y="1181100"/>
+          <a:off x="714375" y="1466850"/>
           <a:ext cx="7581900" cy="1933575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -613,13 +600,7 @@
     <xdr:ext cx="7581900" cy="2143125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="図 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -633,7 +614,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="4953000"/>
+          <a:off x="666750" y="6191250"/>
           <a:ext cx="7581900" cy="2143125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -658,13 +639,7 @@
     <xdr:ext cx="6800850" cy="4067175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -678,7 +653,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="952500"/>
+          <a:off x="666750" y="1190625"/>
           <a:ext cx="6800850" cy="4067175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -698,13 +673,7 @@
     <xdr:ext cx="6400800" cy="4505325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -718,7 +687,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8420100" y="952500"/>
+          <a:off x="9163050" y="1143000"/>
           <a:ext cx="6400800" cy="4505325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -738,13 +707,7 @@
     <xdr:ext cx="6391275" cy="4114800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="図 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -758,7 +721,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="6096000"/>
+          <a:off x="666750" y="7620000"/>
           <a:ext cx="6391275" cy="4114800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -778,13 +741,7 @@
     <xdr:ext cx="6381750" cy="4714875"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="図 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -798,7 +755,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8505825" y="6057900"/>
+          <a:off x="9248775" y="7534275"/>
           <a:ext cx="6381750" cy="4714875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -818,13 +775,7 @@
     <xdr:ext cx="6276975" cy="4543425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="図 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -838,7 +789,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8420100" y="11487150"/>
+          <a:off x="9163050" y="14335125"/>
           <a:ext cx="6276975" cy="4543425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -858,13 +809,7 @@
     <xdr:ext cx="6229350" cy="4267200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="図 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -878,7 +823,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="11439525"/>
+          <a:off x="666750" y="14287500"/>
           <a:ext cx="6229350" cy="4267200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -898,13 +843,7 @@
     <xdr:ext cx="6296025" cy="4133850"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="図 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -918,7 +857,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="16773525"/>
+          <a:off x="666750" y="20955000"/>
           <a:ext cx="6296025" cy="4133850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -938,13 +877,7 @@
     <xdr:ext cx="6200775" cy="4638675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="図 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -958,7 +891,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="16583025"/>
+          <a:off x="9277350" y="20669250"/>
           <a:ext cx="6200775" cy="4638675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -978,13 +911,7 @@
     <xdr:ext cx="6324600" cy="4210050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="図 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -998,7 +925,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="21917025"/>
+          <a:off x="666750" y="27384375"/>
           <a:ext cx="6324600" cy="4210050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1018,13 +945,7 @@
     <xdr:ext cx="6248400" cy="4733925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="図 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1038,7 +959,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8591550" y="22117050"/>
+          <a:off x="9391650" y="27632025"/>
           <a:ext cx="6248400" cy="4733925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1058,13 +979,7 @@
     <xdr:ext cx="6191250" cy="4581525"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="図 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1078,7 +993,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="28394025"/>
+          <a:off x="9334500" y="35480625"/>
           <a:ext cx="6191250" cy="4581525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1098,13 +1013,7 @@
     <xdr:ext cx="6372225" cy="4362450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="図 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1118,7 +1027,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="34680525"/>
+          <a:off x="666750" y="43338750"/>
           <a:ext cx="6372225" cy="4362450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1138,13 +1047,7 @@
     <xdr:ext cx="6343650" cy="4476750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="図 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1158,7 +1061,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9144000" y="34642425"/>
+          <a:off x="9944100" y="43253025"/>
           <a:ext cx="6343650" cy="4476750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1178,13 +1081,7 @@
     <xdr:ext cx="6181725" cy="4133850"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="図 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1198,7 +1095,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="523875" y="41690925"/>
+          <a:off x="523875" y="52063650"/>
           <a:ext cx="6181725" cy="4133850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1218,13 +1115,7 @@
     <xdr:ext cx="6457950" cy="4724400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="図 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1238,7 +1129,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9144000" y="41729025"/>
+          <a:off x="10001250" y="52149375"/>
           <a:ext cx="6457950" cy="4724400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1258,13 +1149,7 @@
     <xdr:ext cx="6505575" cy="4248150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="図 16"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1278,7 +1163,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619125" y="28584525"/>
+          <a:off x="676275" y="35671125"/>
           <a:ext cx="6505575" cy="4248150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1303,13 +1188,7 @@
     <xdr:ext cx="2781300" cy="1962150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="図 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1323,7 +1202,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="104775" y="12163425"/>
+          <a:off x="104775" y="15116175"/>
           <a:ext cx="2781300" cy="1962150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1343,13 +1222,7 @@
     <xdr:ext cx="6210300" cy="4305300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="図 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1363,7 +1236,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="1143000"/>
+          <a:off x="666750" y="1381125"/>
           <a:ext cx="6210300" cy="4305300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1383,13 +1256,7 @@
     <xdr:ext cx="6296025" cy="4686300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="図 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1403,7 +1270,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="781050" y="6858000"/>
+          <a:off x="838200" y="8477250"/>
           <a:ext cx="6296025" cy="4686300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1423,13 +1290,7 @@
     <xdr:ext cx="14592300" cy="257175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="図 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1443,7 +1304,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3657600" y="12801600"/>
+          <a:off x="3943350" y="15944850"/>
           <a:ext cx="14592300" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1463,13 +1324,7 @@
     <xdr:ext cx="6400800" cy="4581525"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="図 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1483,7 +1338,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="22269450"/>
+          <a:off x="723900" y="27403425"/>
           <a:ext cx="6400800" cy="4581525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1503,13 +1358,7 @@
     <xdr:ext cx="14439900" cy="1038225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="図 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1523,7 +1372,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3895725" y="28613100"/>
+          <a:off x="4238625" y="35366325"/>
           <a:ext cx="14439900" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1543,13 +1392,7 @@
     <xdr:ext cx="2781300" cy="1962150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="図 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1563,7 +1406,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="27908250"/>
+          <a:off x="419100" y="34470975"/>
           <a:ext cx="2781300" cy="1962150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1586,21 +1429,15 @@
       <xdr:row>148</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3971925" y="29279850"/>
-          <a:ext cx="3467100" cy="247650"/>
+          <a:off x="4314825" y="36175950"/>
+          <a:ext cx="3810000" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1651,13 +1488,7 @@
     <xdr:ext cx="6267450" cy="4067175"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="図 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1671,7 +1502,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="16363950"/>
+          <a:off x="666750" y="20069175"/>
           <a:ext cx="6267450" cy="4067175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1983,31 +1814,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0" topLeftCell="A13">
+      <selection activeCell="O30" sqref="O30" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="B3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17">
       <c r="B17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="27">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28">
       <c r="B28" s="1"/>
     </row>
   </sheetData>
@@ -2021,13 +1852,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086DAA72-74AC-4346-90B5-7D06D3A9AB4B}">
   <dimension ref="B2:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15:P16" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="B2" t="s">
         <v>25</v>
       </c>
@@ -2035,13 +1866,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B23" s="1" t="s">
+    <row r="15">
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B24" s="1" t="s">
+    <row r="16">
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2056,16 +1887,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" topLeftCell="A34" tabSelected="1">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="M2" s="1"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
@@ -2075,13 +1906,13 @@
       </c>
       <c r="S5" s="1"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="M13" s="1"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="20">
       <c r="Q20" s="1"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="24">
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2101,13 +1932,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:P216"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" workbookViewId="0">
+    <sheetView topLeftCell="A241" workbookViewId="0">
       <selection activeCell="L148" sqref="L148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2115,17 +1946,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="30">
       <c r="B30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="31">
       <c r="O31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="58">
       <c r="B58" t="s">
         <v>4</v>
       </c>
@@ -2133,7 +1964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="86">
       <c r="B86" t="s">
         <v>5</v>
       </c>
@@ -2141,7 +1972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="114">
       <c r="B114" s="1" t="s">
         <v>8</v>
       </c>
@@ -2149,7 +1980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="147">
       <c r="B147" s="1" t="s">
         <v>10</v>
       </c>
@@ -2157,7 +1988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="177">
       <c r="B177" t="s">
         <v>13</v>
       </c>
@@ -2165,7 +1996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="180">
       <c r="B180" s="1" t="s">
         <v>12</v>
       </c>
@@ -2173,7 +2004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="216">
       <c r="B216" s="1" t="s">
         <v>14</v>
       </c>
@@ -2192,13 +2023,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:AF149"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N123" sqref="M122:N123" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2232,7 +2063,7 @@
       <c r="AE2" s="4"/>
       <c r="AF2" s="5"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -2266,7 +2097,7 @@
       <c r="AE3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customFormat="1" s="2">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>21</v>
@@ -2302,7 +2133,7 @@
       <c r="AE4" s="10"/>
       <c r="AF4" s="11"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -2336,7 +2167,7 @@
       <c r="AE5" s="7"/>
       <c r="AF5" s="8"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2370,7 +2201,7 @@
       <c r="AE6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2404,7 +2235,7 @@
       <c r="AE7" s="7"/>
       <c r="AF7" s="8"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2438,7 +2269,7 @@
       <c r="AE8" s="7"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2472,7 +2303,7 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2506,7 +2337,7 @@
       <c r="AE10" s="7"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -2540,7 +2371,7 @@
       <c r="AE11" s="7"/>
       <c r="AF11" s="8"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2574,7 +2405,7 @@
       <c r="AE12" s="7"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -2608,7 +2439,7 @@
       <c r="AE13" s="7"/>
       <c r="AF13" s="8"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2642,7 +2473,7 @@
       <c r="AE14" s="7"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2676,7 +2507,7 @@
       <c r="AE15" s="7"/>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2710,7 +2541,7 @@
       <c r="AE16" s="7"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2744,7 +2575,7 @@
       <c r="AE17" s="7"/>
       <c r="AF17" s="8"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="18">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2778,7 +2609,7 @@
       <c r="AE18" s="7"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="19">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2812,7 +2643,7 @@
       <c r="AE19" s="7"/>
       <c r="AF19" s="8"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="20">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2846,7 +2677,7 @@
       <c r="AE20" s="7"/>
       <c r="AF20" s="8"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="21">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2880,7 +2711,7 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="8"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="22">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2914,7 +2745,7 @@
       <c r="AE22" s="7"/>
       <c r="AF22" s="8"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="23">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2948,7 +2779,7 @@
       <c r="AE23" s="7"/>
       <c r="AF23" s="8"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="24">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2982,7 +2813,7 @@
       <c r="AE24" s="7"/>
       <c r="AF24" s="8"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="25">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -3016,7 +2847,7 @@
       <c r="AE25" s="7"/>
       <c r="AF25" s="8"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="26">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -3050,7 +2881,7 @@
       <c r="AE26" s="7"/>
       <c r="AF26" s="8"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="27">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -3084,7 +2915,7 @@
       <c r="AE27" s="7"/>
       <c r="AF27" s="8"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="28">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -3118,7 +2949,7 @@
       <c r="AE28" s="7"/>
       <c r="AF28" s="8"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="29">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -3152,7 +2983,7 @@
       <c r="AE29" s="7"/>
       <c r="AF29" s="8"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="30">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -3186,7 +3017,7 @@
       <c r="AE30" s="7"/>
       <c r="AF30" s="8"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="31">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -3220,7 +3051,7 @@
       <c r="AE31" s="7"/>
       <c r="AF31" s="8"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="32">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -3254,7 +3085,7 @@
       <c r="AE32" s="7"/>
       <c r="AF32" s="8"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="33">
       <c r="A33" s="6"/>
       <c r="B33" s="12"/>
       <c r="C33" s="7" t="s">
@@ -3290,7 +3121,7 @@
       <c r="AE33" s="7"/>
       <c r="AF33" s="8"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="34">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -3324,7 +3155,7 @@
       <c r="AE34" s="7"/>
       <c r="AF34" s="8"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="35">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="1" t="s">
@@ -3360,7 +3191,7 @@
       <c r="AE35" s="7"/>
       <c r="AF35" s="8"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="36">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -3394,7 +3225,7 @@
       <c r="AE36" s="7"/>
       <c r="AF36" s="8"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="37">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -3428,7 +3259,7 @@
       <c r="AE37" s="7"/>
       <c r="AF37" s="8"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="38">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -3462,7 +3293,7 @@
       <c r="AE38" s="7"/>
       <c r="AF38" s="8"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="39">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -3496,7 +3327,7 @@
       <c r="AE39" s="7"/>
       <c r="AF39" s="8"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="40">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -3530,7 +3361,7 @@
       <c r="AE40" s="7"/>
       <c r="AF40" s="8"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="41">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -3564,7 +3395,7 @@
       <c r="AE41" s="7"/>
       <c r="AF41" s="8"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="42">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -3598,7 +3429,7 @@
       <c r="AE42" s="7"/>
       <c r="AF42" s="8"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="43">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -3632,7 +3463,7 @@
       <c r="AE43" s="7"/>
       <c r="AF43" s="8"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="44">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -3666,7 +3497,7 @@
       <c r="AE44" s="7"/>
       <c r="AF44" s="8"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="45">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -3700,7 +3531,7 @@
       <c r="AE45" s="7"/>
       <c r="AF45" s="8"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="46">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -3734,7 +3565,7 @@
       <c r="AE46" s="7"/>
       <c r="AF46" s="8"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="47">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -3768,7 +3599,7 @@
       <c r="AE47" s="7"/>
       <c r="AF47" s="8"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="48">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -3802,7 +3633,7 @@
       <c r="AE48" s="7"/>
       <c r="AF48" s="8"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="49">
       <c r="A49" s="6"/>
       <c r="B49" s="12"/>
       <c r="C49" s="7"/>
@@ -3836,7 +3667,7 @@
       <c r="AE49" s="7"/>
       <c r="AF49" s="8"/>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="50">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -3870,7 +3701,7 @@
       <c r="AE50" s="7"/>
       <c r="AF50" s="8"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="51">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -3904,7 +3735,7 @@
       <c r="AE51" s="7"/>
       <c r="AF51" s="8"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="52">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -3938,7 +3769,7 @@
       <c r="AE52" s="7"/>
       <c r="AF52" s="8"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="53">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -3972,7 +3803,7 @@
       <c r="AE53" s="7"/>
       <c r="AF53" s="8"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="54">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -4006,7 +3837,7 @@
       <c r="AE54" s="7"/>
       <c r="AF54" s="8"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="55">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -4040,7 +3871,7 @@
       <c r="AE55" s="7"/>
       <c r="AF55" s="8"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="56">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -4074,7 +3905,7 @@
       <c r="AE56" s="7"/>
       <c r="AF56" s="8"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="57">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -4108,7 +3939,7 @@
       <c r="AE57" s="7"/>
       <c r="AF57" s="8"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="58">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -4142,7 +3973,7 @@
       <c r="AE58" s="7"/>
       <c r="AF58" s="8"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="59">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -4176,7 +4007,7 @@
       <c r="AE59" s="7"/>
       <c r="AF59" s="8"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="60">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -4210,7 +4041,7 @@
       <c r="AE60" s="7"/>
       <c r="AF60" s="8"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="61">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -4244,7 +4075,7 @@
       <c r="AE61" s="7"/>
       <c r="AF61" s="8"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="62">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -4278,7 +4109,7 @@
       <c r="AE62" s="7"/>
       <c r="AF62" s="8"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="63">
       <c r="A63" s="6"/>
       <c r="B63" s="7" t="s">
         <v>29</v>
@@ -4314,7 +4145,7 @@
       <c r="AE63" s="7"/>
       <c r="AF63" s="8"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="64">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -4348,7 +4179,7 @@
       <c r="AE64" s="7"/>
       <c r="AF64" s="8"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="65">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -4382,7 +4213,7 @@
       <c r="AE65" s="7"/>
       <c r="AF65" s="8"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="66">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -4416,7 +4247,7 @@
       <c r="AE66" s="7"/>
       <c r="AF66" s="8"/>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="67">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -4450,7 +4281,7 @@
       <c r="AE67" s="7"/>
       <c r="AF67" s="8"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="68">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -4484,7 +4315,7 @@
       <c r="AE68" s="7"/>
       <c r="AF68" s="8"/>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="69">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -4518,7 +4349,7 @@
       <c r="AE69" s="7"/>
       <c r="AF69" s="8"/>
     </row>
-    <row r="70" spans="1:32" ht="87.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" customHeight="1" ht="87">
       <c r="A70" s="13"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -4552,7 +4383,7 @@
       <c r="AE70" s="14"/>
       <c r="AF70" s="15"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="76">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -4584,7 +4415,7 @@
       <c r="AC76" s="4"/>
       <c r="AD76" s="5"/>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="77">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -4616,7 +4447,7 @@
       <c r="AC77" s="7"/>
       <c r="AD77" s="8"/>
     </row>
-    <row r="78" spans="1:32" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" ht="15" customFormat="1" s="2">
       <c r="A78" s="9"/>
       <c r="B78" s="16" t="s">
         <v>22</v>
@@ -4650,7 +4481,7 @@
       <c r="AC78" s="10"/>
       <c r="AD78" s="11"/>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="79">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -4682,7 +4513,7 @@
       <c r="AC79" s="7"/>
       <c r="AD79" s="8"/>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="80">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -4714,7 +4545,7 @@
       <c r="AC80" s="7"/>
       <c r="AD80" s="8"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="81">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -4746,7 +4577,7 @@
       <c r="AC81" s="7"/>
       <c r="AD81" s="8"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="82">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -4778,7 +4609,7 @@
       <c r="AC82" s="7"/>
       <c r="AD82" s="8"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="83">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -4810,7 +4641,7 @@
       <c r="AC83" s="7"/>
       <c r="AD83" s="8"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="84">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -4842,7 +4673,7 @@
       <c r="AC84" s="7"/>
       <c r="AD84" s="8"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="85">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -4874,7 +4705,7 @@
       <c r="AC85" s="7"/>
       <c r="AD85" s="8"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="86">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -4906,7 +4737,7 @@
       <c r="AC86" s="7"/>
       <c r="AD86" s="8"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="87">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -4938,7 +4769,7 @@
       <c r="AC87" s="7"/>
       <c r="AD87" s="8"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="88">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -4970,7 +4801,7 @@
       <c r="AC88" s="7"/>
       <c r="AD88" s="8"/>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="89">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -5002,7 +4833,7 @@
       <c r="AC89" s="7"/>
       <c r="AD89" s="8"/>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="90">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -5034,7 +4865,7 @@
       <c r="AC90" s="7"/>
       <c r="AD90" s="8"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="91">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -5066,7 +4897,7 @@
       <c r="AC91" s="7"/>
       <c r="AD91" s="8"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="92">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -5098,7 +4929,7 @@
       <c r="AC92" s="7"/>
       <c r="AD92" s="8"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="93">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -5130,7 +4961,7 @@
       <c r="AC93" s="7"/>
       <c r="AD93" s="8"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="94">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -5162,7 +4993,7 @@
       <c r="AC94" s="7"/>
       <c r="AD94" s="8"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="95">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -5194,7 +5025,7 @@
       <c r="AC95" s="7"/>
       <c r="AD95" s="8"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="96">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -5226,7 +5057,7 @@
       <c r="AC96" s="7"/>
       <c r="AD96" s="8"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="97">
       <c r="A97" s="6"/>
       <c r="B97" s="12"/>
       <c r="C97" s="7"/>
@@ -5258,7 +5089,7 @@
       <c r="AC97" s="7"/>
       <c r="AD97" s="8"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="98">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -5290,7 +5121,7 @@
       <c r="AC98" s="7"/>
       <c r="AD98" s="8"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="99">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -5322,7 +5153,7 @@
       <c r="AC99" s="7"/>
       <c r="AD99" s="8"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="100">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -5354,7 +5185,7 @@
       <c r="AC100" s="7"/>
       <c r="AD100" s="8"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="101">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -5386,7 +5217,7 @@
       <c r="AC101" s="7"/>
       <c r="AD101" s="8"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="102">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -5418,7 +5249,7 @@
       <c r="AC102" s="7"/>
       <c r="AD102" s="8"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="103">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -5450,7 +5281,7 @@
       <c r="AC103" s="7"/>
       <c r="AD103" s="8"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="104">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -5482,7 +5313,7 @@
       <c r="AC104" s="7"/>
       <c r="AD104" s="8"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="105">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -5514,7 +5345,7 @@
       <c r="AC105" s="7"/>
       <c r="AD105" s="8"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="106">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -5546,7 +5377,7 @@
       <c r="AC106" s="7"/>
       <c r="AD106" s="8"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="107">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -5578,7 +5409,7 @@
       <c r="AC107" s="7"/>
       <c r="AD107" s="8"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="108">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -5610,7 +5441,7 @@
       <c r="AC108" s="7"/>
       <c r="AD108" s="8"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="109">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -5642,7 +5473,7 @@
       <c r="AC109" s="7"/>
       <c r="AD109" s="8"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="110">
       <c r="A110" s="6"/>
       <c r="B110" s="7" t="s">
         <v>23</v>
@@ -5676,7 +5507,7 @@
       <c r="AC110" s="7"/>
       <c r="AD110" s="8"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="111">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -5708,7 +5539,7 @@
       <c r="AC111" s="7"/>
       <c r="AD111" s="8"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="112">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -5740,7 +5571,7 @@
       <c r="AC112" s="7"/>
       <c r="AD112" s="8"/>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="113">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -5772,7 +5603,7 @@
       <c r="AC113" s="7"/>
       <c r="AD113" s="8"/>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="114">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -5804,7 +5635,7 @@
       <c r="AC114" s="7"/>
       <c r="AD114" s="8"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="115">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -5836,7 +5667,7 @@
       <c r="AC115" s="7"/>
       <c r="AD115" s="8"/>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="116">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -5868,7 +5699,7 @@
       <c r="AC116" s="7"/>
       <c r="AD116" s="8"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="117">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -5900,7 +5731,7 @@
       <c r="AC117" s="7"/>
       <c r="AD117" s="8"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="118">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -5932,7 +5763,7 @@
       <c r="AC118" s="7"/>
       <c r="AD118" s="8"/>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="119">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -5964,7 +5795,7 @@
       <c r="AC119" s="7"/>
       <c r="AD119" s="8"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="120">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -5996,7 +5827,7 @@
       <c r="AC120" s="7"/>
       <c r="AD120" s="8"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="121">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -6028,7 +5859,7 @@
       <c r="AC121" s="7"/>
       <c r="AD121" s="8"/>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="122">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -6060,7 +5891,7 @@
       <c r="AC122" s="7"/>
       <c r="AD122" s="8"/>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="123">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -6092,7 +5923,7 @@
       <c r="AC123" s="7"/>
       <c r="AD123" s="8"/>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="124">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -6124,7 +5955,7 @@
       <c r="AC124" s="7"/>
       <c r="AD124" s="8"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="125">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -6156,7 +5987,7 @@
       <c r="AC125" s="7"/>
       <c r="AD125" s="8"/>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="126">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -6188,7 +6019,7 @@
       <c r="AC126" s="7"/>
       <c r="AD126" s="8"/>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="127">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -6220,7 +6051,7 @@
       <c r="AC127" s="7"/>
       <c r="AD127" s="8"/>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="128">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -6252,7 +6083,7 @@
       <c r="AC128" s="7"/>
       <c r="AD128" s="8"/>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="129">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -6284,7 +6115,7 @@
       <c r="AC129" s="7"/>
       <c r="AD129" s="8"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="130">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -6316,7 +6147,7 @@
       <c r="AC130" s="7"/>
       <c r="AD130" s="8"/>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="131">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -6348,7 +6179,7 @@
       <c r="AC131" s="7"/>
       <c r="AD131" s="8"/>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="132">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -6380,7 +6211,7 @@
       <c r="AC132" s="7"/>
       <c r="AD132" s="8"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="133">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -6412,7 +6243,7 @@
       <c r="AC133" s="7"/>
       <c r="AD133" s="8"/>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="134">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -6444,7 +6275,7 @@
       <c r="AC134" s="7"/>
       <c r="AD134" s="8"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="135">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -6476,7 +6307,7 @@
       <c r="AC135" s="7"/>
       <c r="AD135" s="8"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="136">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -6508,7 +6339,7 @@
       <c r="AC136" s="7"/>
       <c r="AD136" s="8"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="137">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -6540,7 +6371,7 @@
       <c r="AC137" s="7"/>
       <c r="AD137" s="8"/>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="138">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -6572,7 +6403,7 @@
       <c r="AC138" s="7"/>
       <c r="AD138" s="8"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="139">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -6604,7 +6435,7 @@
       <c r="AC139" s="7"/>
       <c r="AD139" s="8"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="140">
       <c r="A140" s="6"/>
       <c r="B140" s="1" t="s">
         <v>30</v>
@@ -6638,7 +6469,7 @@
       <c r="AC140" s="7"/>
       <c r="AD140" s="8"/>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="141">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -6670,7 +6501,7 @@
       <c r="AC141" s="7"/>
       <c r="AD141" s="8"/>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="142">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -6702,7 +6533,7 @@
       <c r="AC142" s="7"/>
       <c r="AD142" s="8"/>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="143">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -6734,7 +6565,7 @@
       <c r="AC143" s="7"/>
       <c r="AD143" s="8"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="144">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -6766,7 +6597,7 @@
       <c r="AC144" s="7"/>
       <c r="AD144" s="8"/>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="145">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -6798,7 +6629,7 @@
       <c r="AC145" s="7"/>
       <c r="AD145" s="8"/>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="146">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -6830,7 +6661,7 @@
       <c r="AC146" s="7"/>
       <c r="AD146" s="8"/>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="147">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -6862,7 +6693,7 @@
       <c r="AC147" s="7"/>
       <c r="AD147" s="8"/>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="148">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -6894,7 +6725,7 @@
       <c r="AC148" s="7"/>
       <c r="AD148" s="8"/>
     </row>
-    <row r="149" spans="1:30" ht="69.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" customHeight="1" ht="69">
       <c r="A149" s="13"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
